--- a/연습용 txt/정수환 버스시간.xlsx
+++ b/연습용 txt/정수환 버스시간.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>매월26</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t>유스퀘어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곡38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버들마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스퀘어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역회관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송암68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버들마을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,7 +135,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
@@ -385,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -396,18 +432,24 @@
     <col min="1" max="1" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -423,20 +465,45 @@
       <c r="E3" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>0.25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="L3" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.28680555555555554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -456,26 +523,270 @@
         <f>E$3+TIME(0,28,0)</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="F4" s="3">
-        <f>F$3+TIME(0,5,0)</f>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <f>G$3+TIME(0,5,0)</f>
         <v>0.25347222222222221</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:I4" si="0">G$3+TIME(0,5,0)</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:J4" si="0">H$3+TIME(0,5,0)</f>
         <v>0.27430555555555552</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>0.2951388888888889</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>0.31597222222222221</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B$4+TIME(0,15,0)</f>
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:J5" si="1">C$4+TIME(0,15,0)</f>
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="L5" s="1">
+        <f>L$3+TIME(0,43,0)</f>
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M4:T5" si="2">M$3+TIME(0,43,0)</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1">
+        <f>L$5 + TIME(0,4,0)</f>
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:T6" si="3">M$5 + TIME(0,4,0)</f>
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B$8 + TIME(0,54,0)</f>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:G9" si="4">C$8 + TIME(0,54,0)</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34374999999999994</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I$8 + TIME(0,34,0)</f>
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9:M9" si="5">J$8 + TIME(0,34,0)</f>
+        <v>0.27361111111111114</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30138888888888893</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.31527777777777777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B$9 + TIME(0,18,)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:G10" si="6">C$9 + TIME(0,18,)</f>
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.34305555555555556</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.35624999999999996</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1">
+        <f>I$9 +TIME(0,13,0)</f>
+        <v>0.26875000000000004</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10:M10" si="7">J$9 +TIME(0,13,0)</f>
+        <v>0.28263888888888894</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.31041666666666673</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.32430555555555557</v>
       </c>
     </row>
   </sheetData>
